--- a/scripts/data/links.xlsx
+++ b/scripts/data/links.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="120">
   <si>
     <t>source_name</t>
   </si>
@@ -79,12 +79,12 @@
     <t>NAV</t>
   </si>
   <si>
+    <t>Quavo</t>
+  </si>
+  <si>
     <t>SAINt JHN</t>
   </si>
   <si>
-    <t>Quavo</t>
-  </si>
-  <si>
     <t>Fetty Wap</t>
   </si>
   <si>
@@ -103,7 +103,7 @@
     <t>mike.</t>
   </si>
   <si>
-    <t>G-Eazy</t>
+    <t>PnB Rock</t>
   </si>
   <si>
     <t>Swae Lee</t>
@@ -118,12 +118,12 @@
     <t>Famous Dex</t>
   </si>
   <si>
+    <t>88GLAM</t>
+  </si>
+  <si>
     <t>Rich The Kid</t>
   </si>
   <si>
-    <t>88GLAM</t>
-  </si>
-  <si>
     <t>MadeinTYO</t>
   </si>
   <si>
@@ -133,9 +133,6 @@
     <t>YBN Nahmir</t>
   </si>
   <si>
-    <t>PnB Rock</t>
-  </si>
-  <si>
     <t>YG</t>
   </si>
   <si>
@@ -184,12 +181,12 @@
     <t>Yung Tory</t>
   </si>
   <si>
+    <t>Vory</t>
+  </si>
+  <si>
     <t>COTIS</t>
   </si>
   <si>
-    <t>Vory</t>
-  </si>
-  <si>
     <t>Boslen</t>
   </si>
   <si>
@@ -199,15 +196,15 @@
     <t>Cousin Stizz</t>
   </si>
   <si>
+    <t>Juicy J</t>
+  </si>
+  <si>
+    <t>Bobby Shmurda</t>
+  </si>
+  <si>
     <t>A$AP Twelvyy</t>
   </si>
   <si>
-    <t>Juicy J</t>
-  </si>
-  <si>
-    <t>Bobby Shmurda</t>
-  </si>
-  <si>
     <t>Waka Flocka Flame</t>
   </si>
   <si>
@@ -241,12 +238,12 @@
     <t>7rkW85dBwwrJtlHRDkJDAC</t>
   </si>
   <si>
+    <t>0VRj0yCOv2FXJNP47XQnx5</t>
+  </si>
+  <si>
     <t>0H39MdGGX6dbnnQPt6NQkZ</t>
   </si>
   <si>
-    <t>0VRj0yCOv2FXJNP47XQnx5</t>
-  </si>
-  <si>
     <t>6PXS4YHDkKvl1wkIl4V8DL</t>
   </si>
   <si>
@@ -265,7 +262,7 @@
     <t>5G9kmDLg3OeUyj8KVBLzbu</t>
   </si>
   <si>
-    <t>02kJSzxNuaWGqwubyUba0Z</t>
+    <t>21WS9wngs9AqFckK7yYJPM</t>
   </si>
   <si>
     <t>1zNqQNIdeOUZHb8zbZRFMX</t>
@@ -280,12 +277,12 @@
     <t>0WOxhx4hikIsyF3CRPLC8W</t>
   </si>
   <si>
+    <t>2I9SLklAOG0vdMiUUMNxRl</t>
+  </si>
+  <si>
     <t>1pPmIToKXyGdsCF6LmqLmI</t>
   </si>
   <si>
-    <t>2I9SLklAOG0vdMiUUMNxRl</t>
-  </si>
-  <si>
     <t>5SyGEPymt1G2uto47tVWvZ</t>
   </si>
   <si>
@@ -295,9 +292,6 @@
     <t>3gGUMEwIX6XodWsYEvKSal</t>
   </si>
   <si>
-    <t>21WS9wngs9AqFckK7yYJPM</t>
-  </si>
-  <si>
     <t>0A0FS04o6zMoto8OKPsDwY</t>
   </si>
   <si>
@@ -346,12 +340,12 @@
     <t>392I9I5QMSyoA0FmI5pVfx</t>
   </si>
   <si>
+    <t>0GeeIVcvGA8GSlWsoY1dkG</t>
+  </si>
+  <si>
     <t>63CZNEytugjFnZBdjBmWc8</t>
   </si>
   <si>
-    <t>0GeeIVcvGA8GSlWsoY1dkG</t>
-  </si>
-  <si>
     <t>7mX72Bq2iXNr8fZdu23fQL</t>
   </si>
   <si>
@@ -361,13 +355,13 @@
     <t>0KpCz7V5XRkqKuM1JDf56O</t>
   </si>
   <si>
+    <t>5gCRApTajqwbnHHPbr2Fpi</t>
+  </si>
+  <si>
+    <t>34Y0ldeyUv7jBvukWOGASO</t>
+  </si>
+  <si>
     <t>0tPjSrb43a58uznKru1k2P</t>
-  </si>
-  <si>
-    <t>5gCRApTajqwbnHHPbr2Fpi</t>
-  </si>
-  <si>
-    <t>34Y0ldeyUv7jBvukWOGASO</t>
   </si>
   <si>
     <t>6f4XkbvYlXMH0QgVRzW0sM</t>
@@ -737,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -824,7 +818,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -838,7 +832,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -852,7 +846,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -866,7 +860,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -880,7 +874,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -894,7 +888,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -908,7 +902,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -922,7 +916,7 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -936,7 +930,7 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -950,7 +944,7 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -964,7 +958,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -978,7 +972,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -992,7 +986,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1006,7 +1000,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1020,7 +1014,7 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1034,7 +1028,7 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1048,7 +1042,7 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1076,7 +1070,7 @@
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1104,7 +1098,7 @@
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1118,7 +1112,7 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1132,7 +1126,7 @@
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1146,7 +1140,7 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1160,7 +1154,7 @@
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1174,7 +1168,7 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1188,7 +1182,7 @@
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1202,7 +1196,7 @@
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1216,7 +1210,7 @@
         <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1230,7 +1224,7 @@
         <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1244,7 +1238,7 @@
         <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1258,7 +1252,7 @@
         <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1269,10 +1263,10 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1283,10 +1277,10 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1297,10 +1291,10 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1311,10 +1305,10 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1328,7 +1322,7 @@
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1342,7 +1336,7 @@
         <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1367,10 +1361,10 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1381,10 +1375,10 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1398,7 +1392,7 @@
         <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1409,10 +1403,10 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1423,10 +1417,10 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1440,7 +1434,7 @@
         <v>37</v>
       </c>
       <c r="D50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1454,7 +1448,7 @@
         <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1479,7 +1473,7 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D53" t="s">
         <v>88</v>
@@ -1496,7 +1490,7 @@
         <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1510,7 +1504,7 @@
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1521,10 +1515,10 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1538,7 +1532,7 @@
         <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1549,10 +1543,10 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D58" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1563,10 +1557,10 @@
         <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D59" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1580,7 +1574,7 @@
         <v>36</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1591,10 +1585,10 @@
         <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D61" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1605,10 +1599,10 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D62" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1619,7 +1613,7 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D63" t="s">
         <v>75</v>
@@ -1633,10 +1627,10 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1647,10 +1641,10 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D65" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1661,10 +1655,10 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D66" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1678,7 +1672,7 @@
         <v>24</v>
       </c>
       <c r="D67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1689,10 +1683,10 @@
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D68" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1706,7 +1700,7 @@
         <v>25</v>
       </c>
       <c r="D69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1717,10 +1711,10 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D70" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1734,7 +1728,7 @@
         <v>30</v>
       </c>
       <c r="D71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1745,10 +1739,10 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1759,10 +1753,10 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D73" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1773,10 +1767,10 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D74" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1787,10 +1781,10 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D75" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1801,10 +1795,10 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D76" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1815,10 +1809,10 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D77" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1829,10 +1823,10 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D78" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1843,10 +1837,10 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D79" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1857,10 +1851,10 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D80" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1871,10 +1865,10 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D81" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1888,7 +1882,7 @@
         <v>31</v>
       </c>
       <c r="D82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1902,7 +1896,7 @@
         <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1930,7 +1924,7 @@
         <v>32</v>
       </c>
       <c r="D85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1944,7 +1938,7 @@
         <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1972,7 +1966,7 @@
         <v>19</v>
       </c>
       <c r="D88" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1983,10 +1977,10 @@
         <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D89" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1997,10 +1991,10 @@
         <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D90" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2011,10 +2005,10 @@
         <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D91" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2025,10 +2019,10 @@
         <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D92" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2039,10 +2033,10 @@
         <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D93" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2053,10 +2047,10 @@
         <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D94" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2067,10 +2061,10 @@
         <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D95" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2081,10 +2075,10 @@
         <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2095,10 +2089,10 @@
         <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D97" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2109,10 +2103,10 @@
         <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D98" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2123,10 +2117,10 @@
         <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D99" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2137,7 +2131,7 @@
         <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D100" t="s">
         <v>88</v>
@@ -2151,10 +2145,1130 @@
         <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D101" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" t="s">
+        <v>30</v>
+      </c>
+      <c r="D104" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" t="s">
+        <v>31</v>
+      </c>
+      <c r="D107" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" t="s">
+        <v>33</v>
+      </c>
+      <c r="D111" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" t="s">
+        <v>34</v>
+      </c>
+      <c r="D112" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" t="s">
+        <v>35</v>
+      </c>
+      <c r="D113" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" t="s">
+        <v>23</v>
+      </c>
+      <c r="D114" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" t="s">
+        <v>36</v>
+      </c>
+      <c r="D115" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" t="s">
+        <v>37</v>
+      </c>
+      <c r="D116" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" t="s">
+        <v>38</v>
+      </c>
+      <c r="D117" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" t="s">
+        <v>29</v>
+      </c>
+      <c r="D118" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" t="s">
+        <v>39</v>
+      </c>
+      <c r="D119" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" t="s">
+        <v>40</v>
+      </c>
+      <c r="D120" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" t="s">
+        <v>41</v>
+      </c>
+      <c r="D121" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" t="s">
+        <v>31</v>
+      </c>
+      <c r="D125" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>32</v>
+      </c>
+      <c r="D127" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>42</v>
+      </c>
+      <c r="D128" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>34</v>
+      </c>
+      <c r="D129" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>37</v>
+      </c>
+      <c r="D130" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>33</v>
+      </c>
+      <c r="D131" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" t="s">
+        <v>35</v>
+      </c>
+      <c r="D133" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>43</v>
+      </c>
+      <c r="D136" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" t="s">
+        <v>30</v>
+      </c>
+      <c r="D137" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>44</v>
+      </c>
+      <c r="D138" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>41</v>
+      </c>
+      <c r="D139" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>36</v>
+      </c>
+      <c r="D140" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>45</v>
+      </c>
+      <c r="D141" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" t="s">
+        <v>46</v>
+      </c>
+      <c r="D142" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" t="s">
+        <v>22</v>
+      </c>
+      <c r="D143" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>40</v>
+      </c>
+      <c r="D144" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" t="s">
+        <v>34</v>
+      </c>
+      <c r="D145" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="s">
+        <v>47</v>
+      </c>
+      <c r="D146" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" t="s">
+        <v>24</v>
+      </c>
+      <c r="D147" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" t="s">
+        <v>48</v>
+      </c>
+      <c r="D148" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" t="s">
+        <v>25</v>
+      </c>
+      <c r="D149" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" t="s">
+        <v>49</v>
+      </c>
+      <c r="D150" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" t="s">
+        <v>30</v>
+      </c>
+      <c r="D151" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" t="s">
+        <v>50</v>
+      </c>
+      <c r="D152" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" t="s">
+        <v>29</v>
+      </c>
+      <c r="D153" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" t="s">
+        <v>51</v>
+      </c>
+      <c r="D154" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" t="s">
+        <v>52</v>
+      </c>
+      <c r="D155" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" t="s">
+        <v>53</v>
+      </c>
+      <c r="D156" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" t="s">
+        <v>54</v>
+      </c>
+      <c r="D157" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" t="s">
+        <v>55</v>
+      </c>
+      <c r="D158" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" t="s">
+        <v>56</v>
+      </c>
+      <c r="D159" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" t="s">
+        <v>57</v>
+      </c>
+      <c r="D160" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" t="s">
+        <v>58</v>
+      </c>
+      <c r="D161" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" t="s">
+        <v>31</v>
+      </c>
+      <c r="D162" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" t="s">
+        <v>18</v>
+      </c>
+      <c r="D163" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" t="s">
+        <v>32</v>
+      </c>
+      <c r="D165" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" t="s">
+        <v>19</v>
+      </c>
+      <c r="D168" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" t="s">
+        <v>43</v>
+      </c>
+      <c r="D169" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" t="s">
+        <v>39</v>
+      </c>
+      <c r="D170" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" t="s">
+        <v>59</v>
+      </c>
+      <c r="D171" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>8</v>
+      </c>
+      <c r="B172" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" t="s">
+        <v>42</v>
+      </c>
+      <c r="D172" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>8</v>
+      </c>
+      <c r="B173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" t="s">
+        <v>60</v>
+      </c>
+      <c r="D173" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" t="s">
+        <v>61</v>
+      </c>
+      <c r="D174" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" t="s">
+        <v>62</v>
+      </c>
+      <c r="D175" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" t="s">
+        <v>64</v>
+      </c>
+      <c r="D178" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" t="s">
+        <v>65</v>
+      </c>
+      <c r="D179" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" t="s">
+        <v>35</v>
+      </c>
+      <c r="D180" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" t="s">
+        <v>66</v>
+      </c>
+      <c r="D181" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
